--- a/Python MP/MP_StockingPointCapacities.xlsx
+++ b/Python MP/MP_StockingPointCapacities.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="194">
   <si>
     <t>MaxCapacity</t>
   </si>
@@ -208,6 +208,9 @@
     <t>BAMAKO (MALI)</t>
   </si>
   <si>
+    <t>BANDÉ (NIGER)</t>
+  </si>
+  <si>
     <t>BEIRA (MOZAMBIQUE)</t>
   </si>
   <si>
@@ -223,6 +226,9 @@
     <t>BOUAR (CEN.AFRICAN REP)</t>
   </si>
   <si>
+    <t>BOUMA (SENEGAL)</t>
+  </si>
+  <si>
     <t>BOZOUM (CEN.AFRICAN REP)</t>
   </si>
   <si>
@@ -232,15 +238,24 @@
     <t>CENTRAL RIVER REGION (GAMBIA)</t>
   </si>
   <si>
+    <t>CHADAKORI (NIGER)</t>
+  </si>
+  <si>
     <t>COKI (SENEGAL)</t>
   </si>
   <si>
+    <t>DAKOUMA (NIGER)</t>
+  </si>
+  <si>
     <t>DEDOUGOU (BURKINA FASO)</t>
   </si>
   <si>
     <t>DJIBOUTI (DJIBOUTI)</t>
   </si>
   <si>
+    <t>DJIRATAOUA (NIGER)</t>
+  </si>
+  <si>
     <t>DJOUGOU (BENIN)</t>
   </si>
   <si>
@@ -253,18 +268,36 @@
     <t>DURBAN (SOUTH AFRICA)</t>
   </si>
   <si>
+    <t>FALWEL (NIGER)</t>
+  </si>
+  <si>
     <t>FARAFENNI (GAMBIA)</t>
   </si>
   <si>
+    <t>FAREY (NIGER)</t>
+  </si>
+  <si>
+    <t>GANGARA (NIGERIA)</t>
+  </si>
+  <si>
     <t>GAROUA (CAMEROON)</t>
   </si>
   <si>
+    <t>GAZAOUA (NIGER)</t>
+  </si>
+  <si>
     <t>GUEASSO (GUINEA)</t>
   </si>
   <si>
+    <t>GUIDAN ROUMDJI (NIGER)</t>
+  </si>
+  <si>
     <t>HAMBURG (GERMANY)</t>
   </si>
   <si>
+    <t>HARIKANASSOU (NIGER)</t>
+  </si>
+  <si>
     <t>HOCHIMINH CITY (VIETNAM)</t>
   </si>
   <si>
@@ -301,12 +334,27 @@
     <t>KORIBONDO (SIERRA LEONE)</t>
   </si>
   <si>
+    <t>KORNAKA (NIGER)</t>
+  </si>
+  <si>
     <t>LE HAVRE (FRANCE)</t>
   </si>
   <si>
+    <t>LOGA (NIGER)</t>
+  </si>
+  <si>
     <t>LOKOSSA (BENIN)</t>
   </si>
   <si>
+    <t>MADAOUA (NIGER)</t>
+  </si>
+  <si>
+    <t>MADAROUNFA (NIGER)</t>
+  </si>
+  <si>
+    <t>MAGARIA (NIGER)</t>
+  </si>
+  <si>
     <t>MAIDUGURI (NIGERIA)</t>
   </si>
   <si>
@@ -319,9 +367,18 @@
     <t>MAROUA (CAMEROON)</t>
   </si>
   <si>
+    <t>MAYAHI (NIGER)</t>
+  </si>
+  <si>
     <t>MERSIN (TURKEY)</t>
   </si>
   <si>
+    <t>MIRRIAH (NIGER)</t>
+  </si>
+  <si>
+    <t>MOKKO (NIGER)</t>
+  </si>
+  <si>
     <t>MONTREAL (CANADA)</t>
   </si>
   <si>
@@ -397,21 +454,42 @@
     <t>ROUEN (FRANCE)</t>
   </si>
   <si>
+    <t>SACLEPEA (LIBERIA)</t>
+  </si>
+  <si>
+    <t>SAFO (MALI)</t>
+  </si>
+  <si>
     <t>SAKIEMA (SIERRA LEONE)</t>
   </si>
   <si>
+    <t>SARKIN YAMMA (NIGER)</t>
+  </si>
+  <si>
     <t>SURABAYA (INDONESIA)</t>
   </si>
   <si>
+    <t>TAHOUA (NIGER)</t>
+  </si>
+  <si>
     <t>TEHRAN (IRAN)</t>
   </si>
   <si>
     <t>TEMA (GHANA)</t>
   </si>
   <si>
+    <t>TESSAOUA (NIGER)</t>
+  </si>
+  <si>
+    <t>TIBIRI (NIGER)</t>
+  </si>
+  <si>
     <t>TRABZON (TURKEY)</t>
   </si>
   <si>
+    <t>TSERNAOUA (NIGER)</t>
+  </si>
+  <si>
     <t>VENEZIA (ITALY)</t>
   </si>
   <si>
@@ -419,6 +497,12 @@
   </si>
   <si>
     <t>YOKOHAMA (JAPAN)</t>
+  </si>
+  <si>
+    <t>ZINDER (NIGER)</t>
+  </si>
+  <si>
+    <t>AD DAMMAM (SAUDI ARABIA)</t>
   </si>
   <si>
     <t>BENIN [D]</t>
@@ -848,7 +932,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C164"/>
+  <dimension ref="A1:C192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2332,7 +2416,7 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="B135" s="2" t="n">
         <v>42826</v>
@@ -2354,7 +2438,7 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="n">
-        <v>15530</v>
+        <v>0</v>
       </c>
       <c r="B137" s="2" t="n">
         <v>42826</v>
@@ -2376,7 +2460,7 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="n">
-        <v>39400</v>
+        <v>0</v>
       </c>
       <c r="B139" s="2" t="n">
         <v>42826</v>
@@ -2398,7 +2482,7 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="n">
-        <v>10900</v>
+        <v>0</v>
       </c>
       <c r="B141" s="2" t="n">
         <v>42826</v>
@@ -2420,7 +2504,7 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="n">
-        <v>17000</v>
+        <v>0</v>
       </c>
       <c r="B143" s="2" t="n">
         <v>42826</v>
@@ -2442,7 +2526,7 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="n">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="B145" s="2" t="n">
         <v>42826</v>
@@ -2464,7 +2548,7 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="B147" s="2" t="n">
         <v>42826</v>
@@ -2486,7 +2570,7 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="n">
-        <v>23000</v>
+        <v>0</v>
       </c>
       <c r="B149" s="2" t="n">
         <v>42826</v>
@@ -2508,7 +2592,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="n">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="B151" s="2" t="n">
         <v>42826</v>
@@ -2530,7 +2614,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="n">
-        <v>17600</v>
+        <v>0</v>
       </c>
       <c r="B153" s="2" t="n">
         <v>42826</v>
@@ -2552,7 +2636,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="n">
-        <v>17333</v>
+        <v>0</v>
       </c>
       <c r="B155" s="2" t="n">
         <v>42826</v>
@@ -2574,7 +2658,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="n">
-        <v>19400</v>
+        <v>0</v>
       </c>
       <c r="B157" s="2" t="n">
         <v>42826</v>
@@ -2596,7 +2680,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="n">
-        <v>49600</v>
+        <v>0</v>
       </c>
       <c r="B159" s="2" t="n">
         <v>42826</v>
@@ -2618,7 +2702,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="n">
-        <v>29000</v>
+        <v>0</v>
       </c>
       <c r="B161" s="2" t="n">
         <v>42826</v>
@@ -2658,6 +2742,314 @@
       </c>
       <c r="C164" t="s">
         <v>165</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="n">
+        <v>15530</v>
+      </c>
+      <c r="B165" s="2" t="n">
+        <v>42826</v>
+      </c>
+      <c r="C165" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="n">
+        <v>0</v>
+      </c>
+      <c r="B166" s="2" t="n">
+        <v>42826</v>
+      </c>
+      <c r="C166" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" t="n">
+        <v>39400</v>
+      </c>
+      <c r="B167" s="2" t="n">
+        <v>42826</v>
+      </c>
+      <c r="C167" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" t="n">
+        <v>0</v>
+      </c>
+      <c r="B168" s="2" t="n">
+        <v>42826</v>
+      </c>
+      <c r="C168" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" t="n">
+        <v>10900</v>
+      </c>
+      <c r="B169" s="2" t="n">
+        <v>42826</v>
+      </c>
+      <c r="C169" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" t="n">
+        <v>0</v>
+      </c>
+      <c r="B170" s="2" t="n">
+        <v>42826</v>
+      </c>
+      <c r="C170" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" t="n">
+        <v>17000</v>
+      </c>
+      <c r="B171" s="2" t="n">
+        <v>42826</v>
+      </c>
+      <c r="C171" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" t="n">
+        <v>0</v>
+      </c>
+      <c r="B172" s="2" t="n">
+        <v>42826</v>
+      </c>
+      <c r="C172" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" t="n">
+        <v>6500</v>
+      </c>
+      <c r="B173" s="2" t="n">
+        <v>42826</v>
+      </c>
+      <c r="C173" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" t="n">
+        <v>0</v>
+      </c>
+      <c r="B174" s="2" t="n">
+        <v>42826</v>
+      </c>
+      <c r="C174" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B175" s="2" t="n">
+        <v>42826</v>
+      </c>
+      <c r="C175" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" t="n">
+        <v>0</v>
+      </c>
+      <c r="B176" s="2" t="n">
+        <v>42826</v>
+      </c>
+      <c r="C176" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" t="n">
+        <v>23000</v>
+      </c>
+      <c r="B177" s="2" t="n">
+        <v>42826</v>
+      </c>
+      <c r="C177" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="n">
+        <v>0</v>
+      </c>
+      <c r="B178" s="2" t="n">
+        <v>42826</v>
+      </c>
+      <c r="C178" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" t="n">
+        <v>4500</v>
+      </c>
+      <c r="B179" s="2" t="n">
+        <v>42826</v>
+      </c>
+      <c r="C179" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" t="n">
+        <v>0</v>
+      </c>
+      <c r="B180" s="2" t="n">
+        <v>42826</v>
+      </c>
+      <c r="C180" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="n">
+        <v>17600</v>
+      </c>
+      <c r="B181" s="2" t="n">
+        <v>42826</v>
+      </c>
+      <c r="C181" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" t="n">
+        <v>0</v>
+      </c>
+      <c r="B182" s="2" t="n">
+        <v>42826</v>
+      </c>
+      <c r="C182" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="n">
+        <v>17333</v>
+      </c>
+      <c r="B183" s="2" t="n">
+        <v>42826</v>
+      </c>
+      <c r="C183" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" t="n">
+        <v>0</v>
+      </c>
+      <c r="B184" s="2" t="n">
+        <v>42826</v>
+      </c>
+      <c r="C184" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" t="n">
+        <v>19400</v>
+      </c>
+      <c r="B185" s="2" t="n">
+        <v>42826</v>
+      </c>
+      <c r="C185" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" t="n">
+        <v>0</v>
+      </c>
+      <c r="B186" s="2" t="n">
+        <v>42826</v>
+      </c>
+      <c r="C186" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" t="n">
+        <v>49600</v>
+      </c>
+      <c r="B187" s="2" t="n">
+        <v>42826</v>
+      </c>
+      <c r="C187" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" t="n">
+        <v>0</v>
+      </c>
+      <c r="B188" s="2" t="n">
+        <v>42826</v>
+      </c>
+      <c r="C188" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" t="n">
+        <v>29000</v>
+      </c>
+      <c r="B189" s="2" t="n">
+        <v>42826</v>
+      </c>
+      <c r="C189" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" t="n">
+        <v>0</v>
+      </c>
+      <c r="B190" s="2" t="n">
+        <v>42826</v>
+      </c>
+      <c r="C190" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B191" s="2" t="n">
+        <v>42826</v>
+      </c>
+      <c r="C191" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" t="n">
+        <v>0</v>
+      </c>
+      <c r="B192" s="2" t="n">
+        <v>42826</v>
+      </c>
+      <c r="C192" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
